--- a/doc/要件定義テンプレート_ND3_情報倉庫準拠.xlsx
+++ b/doc/要件定義テンプレート_ND3_情報倉庫準拠.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14965B-C825-42E2-98A7-FEFCA41CE7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F2F7E-9530-4C0B-8EE7-2F9AB3F2CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="01_概要" sheetId="2" r:id="rId2"/>
     <sheet name="02_スコープ" sheetId="3" r:id="rId3"/>
-    <sheet name="03_ステークホルダー" sheetId="4" r:id="rId4"/>
+    <sheet name="03_ステークホルダー(未使用)" sheetId="4" r:id="rId4"/>
     <sheet name="04_要件一覧" sheetId="5" r:id="rId5"/>
     <sheet name="05_最適化モデル" sheetId="6" r:id="rId6"/>
     <sheet name="06_データ辞書" sheetId="7" r:id="rId7"/>
-    <sheet name="07_画面・帳票" sheetId="8" r:id="rId8"/>
+    <sheet name="07_画面・帳票(未使用)" sheetId="8" r:id="rId8"/>
     <sheet name="08_受入基準" sheetId="9" r:id="rId9"/>
     <sheet name="09_リスク・課題" sheetId="10" r:id="rId10"/>
     <sheet name="10_変更履歴" sheetId="11" r:id="rId11"/>
@@ -481,9 +481,6 @@
     <t>必須制約</t>
   </si>
   <si>
-    <t>(a) 各運用に編成を1つ割当 (b) 各編成は同日に高々1運用 (c) 位置整合（前日の終端→翌日の始端） (d) 走行距離上限 (e) 前回検査からの日数上限 (f) 車両センター容量（任意） (g) 連日固定（該当運用）</t>
-  </si>
-  <si>
     <t>例: 労務・検修期限・留置容量</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>KPI</t>
-  </si>
-  <si>
-    <t>回送回数/回送距離、検査回数、制約違反0、編成の走行距離分散、運用連続性（同一編成の連日割当率）</t>
   </si>
   <si>
     <t>例: 回送km, 休憩不足0, 乗換接続成立率</t>
@@ -1205,12 +1199,232 @@
   <si>
     <t>kpi</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各運用に編成を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つ割当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各編成は同日に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>位置整合（前日の終端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>翌日の始端）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (d) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>走行距離上限はなし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (e) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>前回検査からの日数上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>車両センター容量（任意）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (g) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>連日固定（該当運用）</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検査回数、制約違反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、編成の走行距離分散、運用連続性（同一編成の連日割当率）</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1518,13 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1583,13 +1804,13 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1822,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1834,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1846,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1858,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1870,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1882,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1673,7 +1894,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1906,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1697,13 +1918,13 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1936,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -1754,7 +1975,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
@@ -1766,9 +1987,9 @@
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1778,7 +1999,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1786,25 +2007,25 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>78</v>
@@ -1813,27 +2034,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>17</v>
@@ -1846,129 +2067,129 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -1986,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +2242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2056,7 +2277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2161,7 +2382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +2522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +2557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2371,7 +2592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2441,7 +2662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2511,7 +2732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2651,7 +2872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -2686,7 +2907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -2721,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -2756,7 +2977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -2791,7 +3012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -2826,7 +3047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -2861,7 +3082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -2896,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +3152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +3187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -3036,7 +3257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -3071,7 +3292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3106,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3141,7 +3362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -3211,7 +3432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -3246,7 +3467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3281,7 +3502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3316,7 +3537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -3351,7 +3572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3386,7 +3607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -3421,7 +3642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -3456,7 +3677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3491,7 +3712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3561,7 +3782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -3596,7 +3817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -3631,7 +3852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -3701,7 +3922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -3736,7 +3957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -3771,7 +3992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -3806,7 +4027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +4062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +4097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -3911,7 +4132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3946,7 +4167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3981,7 +4202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -4016,7 +4237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -4086,7 +4307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -4121,7 +4342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -4156,7 +4377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -4191,7 +4412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -4226,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -4261,7 +4482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -4296,7 +4517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4331,7 +4552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -4366,7 +4587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -4401,7 +4622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -4436,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -4471,7 +4692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -4506,7 +4727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -4541,7 +4762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
@@ -4576,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -4611,7 +4832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +4867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
@@ -4681,7 +4902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
@@ -4716,7 +4937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
@@ -4751,7 +4972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -4786,7 +5007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -4821,7 +5042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +5077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -4891,7 +5112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -4926,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
@@ -4961,7 +5182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -4996,7 +5217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -5031,7 +5252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -5066,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -5171,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -5206,7 +5427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
@@ -5241,7 +5462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -5276,7 +5497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -5311,7 +5532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -5363,7 +5584,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -5371,9 +5592,9 @@
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5383,49 +5604,49 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5439,7 +5660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5453,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -5467,7 +5688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +5702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -5495,7 +5716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -5509,7 +5730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -5523,7 +5744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -5537,7 +5758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +5772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5565,7 +5786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +5800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -5593,7 +5814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5607,7 +5828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -5621,7 +5842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +5856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -5649,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5663,7 +5884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -5677,7 +5898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -5691,7 +5912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -5705,7 +5926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -5719,7 +5940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -5733,7 +5954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -5747,7 +5968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -5761,7 +5982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -5775,7 +5996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -5789,7 +6010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -5803,7 +6024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -5817,7 +6038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -5844,18 +6065,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +6088,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5878,18 +6099,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -5898,7 +6119,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -5907,16 +6128,16 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -5927,7 +6148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -5938,7 +6159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -5949,7 +6170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -5977,7 +6198,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -5985,7 +6206,7 @@
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -5997,7 +6218,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -6011,7 +6232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -6025,7 +6246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -6033,13 +6254,13 @@
         <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -6047,13 +6268,13 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -6067,7 +6288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -6081,7 +6302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -6112,7 +6333,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -6121,7 +6342,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
@@ -6133,7 +6354,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -6150,7 +6371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -6167,7 +6388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -6184,7 +6405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -6201,7 +6422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -6218,7 +6439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -6235,7 +6456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -6252,7 +6473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -6269,7 +6490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -6286,7 +6507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -6303,7 +6524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -6337,7 +6558,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -6352,7 +6573,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>70</v>
       </c>
@@ -6364,7 +6585,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -6376,7 +6597,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -6414,7 +6635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -6452,7 +6673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
@@ -6490,7 +6711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -6501,7 +6722,7 @@
         <v>96</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>97</v>
@@ -6528,7 +6749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -6566,7 +6787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>102</v>
       </c>
@@ -6604,7 +6825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
@@ -6615,7 +6836,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>109</v>
@@ -6642,7 +6863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
@@ -6680,7 +6901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
@@ -6718,7 +6939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
@@ -6756,7 +6977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
@@ -6794,7 +7015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>128</v>
       </c>
@@ -6832,7 +7053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -6870,7 +7091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -6908,7 +7129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6946,7 +7167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6984,7 +7205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -7022,7 +7243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -7060,7 +7281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -7098,7 +7319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7136,7 +7357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -7174,7 +7395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -7212,7 +7433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -7250,7 +7471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -7288,7 +7509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -7326,7 +7547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -7402,7 +7623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -7440,7 +7661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -7516,7 +7737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -7554,7 +7775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -7592,7 +7813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -7630,7 +7851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -7668,7 +7889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -7744,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -7782,7 +8003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -7820,7 +8041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -7858,7 +8079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -7896,7 +8117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -7934,7 +8155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -7972,7 +8193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -8010,7 +8231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -8048,7 +8269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -8086,7 +8307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -8124,7 +8345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -8200,7 +8421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -8238,7 +8459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -8276,7 +8497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -8314,7 +8535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -8352,7 +8573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -8428,7 +8649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -8466,7 +8687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -8504,7 +8725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -8542,7 +8763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -8580,7 +8801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -8618,7 +8839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -8656,7 +8877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -8694,7 +8915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -8770,7 +8991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -8808,7 +9029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +9067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -8884,7 +9105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +9143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -8960,7 +9181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -8998,7 +9219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -9036,7 +9257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -9074,7 +9295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -9112,7 +9333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -9150,7 +9371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -9226,7 +9447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -9264,7 +9485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -9302,7 +9523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -9340,7 +9561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -9378,7 +9599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
@@ -9416,7 +9637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -9454,7 +9675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
@@ -9492,7 +9713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +9751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
@@ -9568,7 +9789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
@@ -9606,7 +9827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -9720,7 +9941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -9796,7 +10017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
@@ -9834,7 +10055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -9872,7 +10093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -9910,7 +10131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -9948,7 +10169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -9986,7 +10207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -10024,7 +10245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -10062,7 +10283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -10100,7 +10321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
@@ -10138,7 +10359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -10176,7 +10397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -10214,7 +10435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -10267,10 +10488,10 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -10278,7 +10499,7 @@
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>132</v>
       </c>
@@ -10290,7 +10511,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -10304,7 +10525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>133</v>
       </c>
@@ -10318,7 +10539,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -10332,7 +10553,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -10346,7 +10567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>144</v>
       </c>
@@ -10354,94 +10575,94 @@
         <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -10457,11 +10678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="4" width="18" customWidth="1"/>
@@ -10474,9 +10695,9 @@
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -10486,419 +10707,419 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="G14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
@@ -10906,34 +11127,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
@@ -10941,34 +11162,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
@@ -10976,33 +11197,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>17</v>
@@ -11011,7 +11232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -11046,7 +11267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -11081,7 +11302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -11116,7 +11337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -11151,7 +11372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -11186,7 +11407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -11221,7 +11442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -11256,7 +11477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -11291,7 +11512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -11326,7 +11547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -11361,7 +11582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -11396,7 +11617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -11431,7 +11652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -11466,7 +11687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -11501,7 +11722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -11536,7 +11757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -11571,7 +11792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -11606,7 +11827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -11641,7 +11862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -11676,7 +11897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -11711,7 +11932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -11746,7 +11967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -11781,7 +12002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -11816,7 +12037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -11851,7 +12072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -11886,7 +12107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +12142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -11956,7 +12177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -11991,7 +12212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -12026,7 +12247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -12061,7 +12282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -12096,7 +12317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -12131,7 +12352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -12166,7 +12387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -12201,7 +12422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -12236,7 +12457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -12271,7 +12492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -12306,7 +12527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -12341,7 +12562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -12376,7 +12597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -12411,7 +12632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -12446,7 +12667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -12481,7 +12702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -12516,7 +12737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -12551,7 +12772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -12586,7 +12807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -12621,7 +12842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -12656,7 +12877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -12691,7 +12912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -12726,7 +12947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -12761,7 +12982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -12796,7 +13017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -12831,7 +13052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -12866,7 +13087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -12901,7 +13122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -12936,7 +13157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -12971,7 +13192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -13006,7 +13227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -13041,7 +13262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -13076,7 +13297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -13111,7 +13332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -13146,7 +13367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -13181,7 +13402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -13216,7 +13437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -13251,7 +13472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
@@ -13286,7 +13507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -13321,7 +13542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
@@ -13356,7 +13577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
@@ -13391,7 +13612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
@@ -13426,7 +13647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
@@ -13461,7 +13682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
@@ -13496,7 +13717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -13531,7 +13752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -13566,7 +13787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -13601,7 +13822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -13636,7 +13857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
@@ -13671,7 +13892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -13706,7 +13927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -13741,7 +13962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -13776,7 +13997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -13811,7 +14032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -13846,7 +14067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -13881,7 +14102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -13916,7 +14137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
@@ -13951,7 +14172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -13986,7 +14207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -14021,7 +14242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -14056,7 +14277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>17</v>
       </c>
@@ -14091,7 +14312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>17</v>
       </c>
@@ -14126,7 +14347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>17</v>
       </c>
@@ -14161,7 +14382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>17</v>
       </c>
@@ -14196,7 +14417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>17</v>
       </c>
@@ -14231,7 +14452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
@@ -14266,7 +14487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
@@ -14301,7 +14522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>17</v>
       </c>
@@ -14336,7 +14557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
@@ -14371,7 +14592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -14406,7 +14627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>17</v>
       </c>
@@ -14441,7 +14662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>17</v>
       </c>
@@ -14476,7 +14697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>17</v>
       </c>
@@ -14511,7 +14732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>17</v>
       </c>
@@ -14546,7 +14767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>17</v>
       </c>
@@ -14581,7 +14802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>17</v>
       </c>
@@ -14616,7 +14837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
@@ -14651,7 +14872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -14686,7 +14907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -14721,7 +14942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>17</v>
       </c>
@@ -14756,7 +14977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>17</v>
       </c>
@@ -14791,7 +15012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>17</v>
       </c>
@@ -14826,7 +15047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -14861,7 +15082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -14896,7 +15117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -14931,7 +15152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -14966,7 +15187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>17</v>
       </c>
@@ -15001,7 +15222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
@@ -15036,7 +15257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>17</v>
       </c>
@@ -15071,7 +15292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>17</v>
       </c>
@@ -15106,7 +15327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>17</v>
       </c>
@@ -15141,7 +15362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>17</v>
       </c>
@@ -15176,7 +15397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>17</v>
       </c>
@@ -15211,7 +15432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>17</v>
       </c>
@@ -15246,7 +15467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>17</v>
       </c>
@@ -15281,7 +15502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>17</v>
       </c>
@@ -15316,7 +15537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>17</v>
       </c>
@@ -15351,7 +15572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>17</v>
       </c>
@@ -15386,7 +15607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>17</v>
       </c>
@@ -15421,7 +15642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>17</v>
       </c>
@@ -15456,7 +15677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>17</v>
       </c>
@@ -15491,7 +15712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>17</v>
       </c>
@@ -15526,7 +15747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>17</v>
       </c>
@@ -15561,7 +15782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>17</v>
       </c>
@@ -15596,7 +15817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>17</v>
       </c>
@@ -15631,7 +15852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>17</v>
       </c>
@@ -15666,7 +15887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>17</v>
       </c>
@@ -15701,7 +15922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>17</v>
       </c>
@@ -15736,7 +15957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>17</v>
       </c>
@@ -15771,7 +15992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>17</v>
       </c>
@@ -15806,7 +16027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>17</v>
       </c>
@@ -15841,7 +16062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>17</v>
       </c>
@@ -15876,7 +16097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>17</v>
       </c>
@@ -15911,7 +16132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>17</v>
       </c>
@@ -15946,7 +16167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>17</v>
       </c>
@@ -15981,7 +16202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>17</v>
       </c>
@@ -16016,7 +16237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>17</v>
       </c>
@@ -16051,7 +16272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>17</v>
       </c>
@@ -16086,7 +16307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>17</v>
       </c>
@@ -16121,7 +16342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>17</v>
       </c>
@@ -16156,7 +16377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>17</v>
       </c>
@@ -16191,7 +16412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>17</v>
       </c>
@@ -16226,7 +16447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>17</v>
       </c>
@@ -16261,7 +16482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>17</v>
       </c>
@@ -16296,7 +16517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>17</v>
       </c>
@@ -16331,7 +16552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>17</v>
       </c>
@@ -16366,7 +16587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>17</v>
       </c>
@@ -16401,7 +16622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>17</v>
       </c>
@@ -16436,7 +16657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>17</v>
       </c>
@@ -16471,7 +16692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>17</v>
       </c>
@@ -16506,7 +16727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>17</v>
       </c>
@@ -16541,7 +16762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>17</v>
       </c>
@@ -16576,7 +16797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>17</v>
       </c>
@@ -16611,7 +16832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>17</v>
       </c>
@@ -16646,7 +16867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>17</v>
       </c>
@@ -16681,7 +16902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>17</v>
       </c>
@@ -16716,7 +16937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>17</v>
       </c>
@@ -16751,7 +16972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>17</v>
       </c>
@@ -16786,7 +17007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>17</v>
       </c>
@@ -16821,7 +17042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>17</v>
       </c>
@@ -16856,7 +17077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>17</v>
       </c>
@@ -16891,7 +17112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>17</v>
       </c>
@@ -16926,7 +17147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>17</v>
       </c>
@@ -16961,7 +17182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>17</v>
       </c>
@@ -16996,7 +17217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>17</v>
       </c>
@@ -17031,7 +17252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>17</v>
       </c>
@@ -17066,7 +17287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>17</v>
       </c>
@@ -17101,7 +17322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>17</v>
       </c>
@@ -17136,7 +17357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>17</v>
       </c>
@@ -17171,7 +17392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>17</v>
       </c>
@@ -17206,7 +17427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>17</v>
       </c>
@@ -17241,7 +17462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>17</v>
       </c>
@@ -17276,7 +17497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>17</v>
       </c>
@@ -17311,7 +17532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>17</v>
       </c>
@@ -17346,7 +17567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>17</v>
       </c>
@@ -17381,7 +17602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>17</v>
       </c>
@@ -17416,7 +17637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>17</v>
       </c>
@@ -17451,7 +17672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>17</v>
       </c>
@@ -17500,10 +17721,10 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -17513,9 +17734,9 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17525,7 +17746,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -17533,36 +17754,36 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>111</v>
@@ -17571,21 +17792,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>111</v>
@@ -17594,21 +17815,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>111</v>
@@ -17617,21 +17838,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>111</v>
@@ -17640,7 +17861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -17663,7 +17884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -17686,7 +17907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -17709,7 +17930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -17732,7 +17953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -17755,7 +17976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -17778,7 +17999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -17801,7 +18022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -17824,7 +18045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -17847,7 +18068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -17870,7 +18091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -17893,7 +18114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -17916,7 +18137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -17939,7 +18160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -17962,7 +18183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17985,7 +18206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -18008,7 +18229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -18031,7 +18252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -18054,7 +18275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -18077,7 +18298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -18100,7 +18321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -18123,7 +18344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -18146,7 +18367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -18169,7 +18390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -18192,7 +18413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -18215,7 +18436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -18238,7 +18459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -18261,7 +18482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -18284,7 +18505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -18307,7 +18528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -18330,7 +18551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -18353,7 +18574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -18376,7 +18597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -18399,7 +18620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -18422,7 +18643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -18445,7 +18666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -18468,7 +18689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -18491,7 +18712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -18514,7 +18735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -18537,7 +18758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -18560,7 +18781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -18583,7 +18804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -18606,7 +18827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -18629,7 +18850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -18652,7 +18873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -18675,7 +18896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -18698,7 +18919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -18721,7 +18942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -18744,7 +18965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -18767,7 +18988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -18790,7 +19011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -18813,7 +19034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -18836,7 +19057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -18859,7 +19080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -18882,7 +19103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -18905,7 +19126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -18928,7 +19149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -18968,7 +19189,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -18978,9 +19199,9 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -18990,107 +19211,107 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -19110,7 +19331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -19130,7 +19351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -19150,7 +19371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -19170,7 +19391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -19190,7 +19411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -19210,7 +19431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -19230,7 +19451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -19250,7 +19471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -19270,7 +19491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -19290,7 +19511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -19310,7 +19531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -19330,7 +19551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -19350,7 +19571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -19370,7 +19591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -19390,7 +19611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -19410,7 +19631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -19430,7 +19651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -19450,7 +19671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -19470,7 +19691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -19490,7 +19711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -19510,7 +19731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -19530,7 +19751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -19550,7 +19771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -19570,7 +19791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -19590,7 +19811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -19610,7 +19831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -19630,7 +19851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -19650,7 +19871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -19670,7 +19891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -19690,7 +19911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -19710,7 +19931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -19730,7 +19951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -19750,7 +19971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -19770,7 +19991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -19790,7 +20011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -19810,7 +20031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -19830,7 +20051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -19850,7 +20071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -19870,7 +20091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -19890,7 +20111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -19910,7 +20131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -19930,7 +20151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -19950,7 +20171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -19970,7 +20191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -19990,7 +20211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -20010,7 +20231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -20030,7 +20251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -20050,7 +20271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -20070,7 +20291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -20090,7 +20311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -20110,7 +20331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -20130,7 +20351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -20150,7 +20371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -20170,7 +20391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -20190,7 +20411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -20210,7 +20431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -20230,7 +20451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -20250,7 +20471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -20270,7 +20491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -20290,7 +20511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -20310,7 +20531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -20330,7 +20551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -20350,7 +20571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -20370,7 +20591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -20390,7 +20611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -20410,7 +20631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -20430,7 +20651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -20450,7 +20671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -20470,7 +20691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -20490,7 +20711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -20510,7 +20731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -20530,7 +20751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -20550,7 +20771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -20570,7 +20791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>17</v>
       </c>
@@ -20590,7 +20811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -20610,7 +20831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>17</v>
       </c>
